--- a/app/webroot/commerce/execute/Book1.xlsx
+++ b/app/webroot/commerce/execute/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="256">
   <si>
     <t>Client A/C</t>
   </si>
@@ -60,706 +60,730 @@
     <t>Buy</t>
   </si>
   <si>
+    <t>12.100 K</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Filled</t>
+  </si>
+  <si>
+    <t>GAA50170</t>
+  </si>
+  <si>
+    <t>APEXFOOT</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>1 000</t>
+  </si>
+  <si>
+    <t>32.100 K</t>
+  </si>
+  <si>
+    <t>GAA50161</t>
+  </si>
+  <si>
+    <t>IBP</t>
+  </si>
+  <si>
     <t>Terminated</t>
   </si>
   <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>GAA49734</t>
+  </si>
+  <si>
+    <t>GAA49666</t>
+  </si>
+  <si>
+    <t>5 000</t>
+  </si>
+  <si>
+    <t>ALIF</t>
+  </si>
+  <si>
+    <t>2.070 K</t>
+  </si>
+  <si>
+    <t>GAA49359</t>
+  </si>
+  <si>
+    <t>ADVENT</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>GAA49197</t>
+  </si>
+  <si>
+    <t>2 000</t>
+  </si>
+  <si>
+    <t>SALVOCHEM</t>
+  </si>
+  <si>
+    <t>4 682</t>
+  </si>
+  <si>
+    <t>61.334 K</t>
+  </si>
+  <si>
+    <t>Partially filled</t>
+  </si>
+  <si>
+    <t>GAA49044</t>
+  </si>
+  <si>
+    <t>DESHBANDHU</t>
+  </si>
+  <si>
     <t>Canceled</t>
   </si>
   <si>
-    <t>GAA46910</t>
-  </si>
-  <si>
-    <t>ADVENT</t>
-  </si>
-  <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>36.313 K</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Filled</t>
-  </si>
-  <si>
-    <t>GAA46457</t>
-  </si>
-  <si>
-    <t>BPML</t>
-  </si>
-  <si>
-    <t>50.761 K</t>
-  </si>
-  <si>
-    <t>GAA46150</t>
+    <t>GAA49030</t>
+  </si>
+  <si>
+    <t>56.000 K</t>
+  </si>
+  <si>
+    <t>GAA48916</t>
+  </si>
+  <si>
+    <t>BDCOM</t>
+  </si>
+  <si>
+    <t>GAA48828</t>
+  </si>
+  <si>
+    <t>NFML</t>
+  </si>
+  <si>
+    <t>GAA48435</t>
+  </si>
+  <si>
+    <t>JAMUNABANK</t>
+  </si>
+  <si>
+    <t>20.640 K</t>
+  </si>
+  <si>
+    <t>GAA47991</t>
+  </si>
+  <si>
+    <t>PTL</t>
+  </si>
+  <si>
+    <t>5.415 K</t>
+  </si>
+  <si>
+    <t>GAA47927</t>
+  </si>
+  <si>
+    <t>PRIMELIFE</t>
+  </si>
+  <si>
+    <t>15.100 K</t>
+  </si>
+  <si>
+    <t>GAA47860</t>
+  </si>
+  <si>
+    <t>SONARBAINS</t>
+  </si>
+  <si>
+    <t>GAA47106</t>
+  </si>
+  <si>
+    <t>14 000</t>
+  </si>
+  <si>
+    <t>RNSPIN</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>91.500 K</t>
+  </si>
+  <si>
+    <t>GAA46876</t>
+  </si>
+  <si>
+    <t>BSCCL</t>
+  </si>
+  <si>
+    <t>Replaced</t>
+  </si>
+  <si>
+    <t>GAA46791</t>
+  </si>
+  <si>
+    <t>GAA46734</t>
+  </si>
+  <si>
+    <t>36.380 K</t>
+  </si>
+  <si>
+    <t>GAA46588</t>
+  </si>
+  <si>
+    <t>STYLECRAFT</t>
+  </si>
+  <si>
+    <t>1.500 K</t>
+  </si>
+  <si>
+    <t>GAA46492</t>
+  </si>
+  <si>
+    <t>TUNGHAI</t>
+  </si>
+  <si>
+    <t>GAA45548</t>
+  </si>
+  <si>
+    <t>GAA43767</t>
+  </si>
+  <si>
+    <t>1 111</t>
+  </si>
+  <si>
+    <t>KTL</t>
+  </si>
+  <si>
+    <t>30.200 K</t>
+  </si>
+  <si>
+    <t>GAA43516</t>
+  </si>
+  <si>
+    <t>9.966 K</t>
+  </si>
+  <si>
+    <t>GAA43226</t>
+  </si>
+  <si>
+    <t>BANGAS</t>
+  </si>
+  <si>
+    <t>GAA42824</t>
+  </si>
+  <si>
+    <t>ALLTEX</t>
+  </si>
+  <si>
+    <t>13.733 K</t>
+  </si>
+  <si>
+    <t>GAA42380</t>
+  </si>
+  <si>
+    <t>SILVAPHL</t>
+  </si>
+  <si>
+    <t>33.290 K</t>
+  </si>
+  <si>
+    <t>GAA41855</t>
+  </si>
+  <si>
+    <t>ACI</t>
+  </si>
+  <si>
+    <t>GAA41187</t>
+  </si>
+  <si>
+    <t>10 000</t>
+  </si>
+  <si>
+    <t>FASFIN</t>
+  </si>
+  <si>
+    <t>67.500 K</t>
+  </si>
+  <si>
+    <t>GAA41164</t>
+  </si>
+  <si>
+    <t>2 800</t>
+  </si>
+  <si>
+    <t>199.080 K</t>
+  </si>
+  <si>
+    <t>GAA41122</t>
+  </si>
+  <si>
+    <t>3 700</t>
+  </si>
+  <si>
+    <t>ANWARGALV</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>GAA39673</t>
+  </si>
+  <si>
+    <t>4 111</t>
+  </si>
+  <si>
+    <t>2.690 K</t>
+  </si>
+  <si>
+    <t>GAA38943</t>
+  </si>
+  <si>
+    <t>INTRACO</t>
+  </si>
+  <si>
+    <t>5.236 K</t>
+  </si>
+  <si>
+    <t>GAA38800</t>
+  </si>
+  <si>
+    <t>LEGACYFOOT</t>
+  </si>
+  <si>
+    <t>1.490 K</t>
+  </si>
+  <si>
+    <t>GAA38059</t>
+  </si>
+  <si>
+    <t>GAA38047</t>
+  </si>
+  <si>
+    <t>GAA37900</t>
+  </si>
+  <si>
+    <t>6 000</t>
+  </si>
+  <si>
+    <t>EMERALDOIL</t>
+  </si>
+  <si>
+    <t>GAA37878</t>
+  </si>
+  <si>
+    <t>GAA37776</t>
+  </si>
+  <si>
+    <t>AFTABAUTO</t>
+  </si>
+  <si>
+    <t>5.334 K</t>
+  </si>
+  <si>
+    <t>GAA37450</t>
+  </si>
+  <si>
+    <t>PURABIGEN</t>
+  </si>
+  <si>
+    <t>32.000 K</t>
+  </si>
+  <si>
+    <t>GAA37414</t>
+  </si>
+  <si>
+    <t>BEACONPHAR</t>
+  </si>
+  <si>
+    <t>4.550 K</t>
+  </si>
+  <si>
+    <t>GAA37287</t>
+  </si>
+  <si>
+    <t>GAA35207</t>
+  </si>
+  <si>
+    <t>1 500</t>
+  </si>
+  <si>
+    <t>3 750</t>
+  </si>
+  <si>
+    <t>266.728 K</t>
+  </si>
+  <si>
+    <t>GAA33095</t>
+  </si>
+  <si>
+    <t>GAA33086</t>
+  </si>
+  <si>
+    <t>GAA33082</t>
+  </si>
+  <si>
+    <t>57.600 K</t>
+  </si>
+  <si>
+    <t>GAA31951</t>
   </si>
   <si>
     <t>NATLIFEINS</t>
   </si>
   <si>
-    <t>Replaced</t>
-  </si>
-  <si>
-    <t>GAA46011</t>
-  </si>
-  <si>
-    <t>11.051 K</t>
-  </si>
-  <si>
-    <t>GAA46001</t>
-  </si>
-  <si>
-    <t>REPUBLIC</t>
-  </si>
-  <si>
-    <t>GAA45932</t>
-  </si>
-  <si>
-    <t>GAA45825</t>
-  </si>
-  <si>
-    <t>4.662 K</t>
-  </si>
-  <si>
-    <t>GAA45767</t>
-  </si>
-  <si>
-    <t>1 165</t>
-  </si>
-  <si>
-    <t>17.242 K</t>
-  </si>
-  <si>
-    <t>Working</t>
-  </si>
-  <si>
-    <t>Partially filled</t>
-  </si>
-  <si>
-    <t>GAA45535</t>
-  </si>
-  <si>
-    <t>3 835</t>
-  </si>
-  <si>
-    <t>5 000</t>
-  </si>
-  <si>
-    <t>FEKDIL</t>
-  </si>
-  <si>
-    <t>GAA45502</t>
-  </si>
-  <si>
-    <t>2 000</t>
-  </si>
-  <si>
-    <t>107.200 K</t>
-  </si>
-  <si>
-    <t>GAA44883</t>
+    <t>2.075 K</t>
+  </si>
+  <si>
+    <t>GAA31094</t>
+  </si>
+  <si>
+    <t>GAA30775</t>
+  </si>
+  <si>
+    <t>SAIHAMTEX</t>
+  </si>
+  <si>
+    <t>2.080 K</t>
+  </si>
+  <si>
+    <t>GAA30374</t>
+  </si>
+  <si>
+    <t>3.630 K</t>
+  </si>
+  <si>
+    <t>GAA29690</t>
+  </si>
+  <si>
+    <t>MHSML</t>
+  </si>
+  <si>
+    <t>GAA29612</t>
+  </si>
+  <si>
+    <t>GAA29523</t>
+  </si>
+  <si>
+    <t>2.040 K</t>
+  </si>
+  <si>
+    <t>GAA29451</t>
+  </si>
+  <si>
+    <t>GAA29266</t>
+  </si>
+  <si>
+    <t>2.085 K</t>
+  </si>
+  <si>
+    <t>GAA28869</t>
+  </si>
+  <si>
+    <t>GAA28766</t>
+  </si>
+  <si>
+    <t>72.625 K</t>
+  </si>
+  <si>
+    <t>GAA28711</t>
+  </si>
+  <si>
+    <t>HRTEX</t>
+  </si>
+  <si>
+    <t>GAA28700</t>
+  </si>
+  <si>
+    <t>GAA28689</t>
+  </si>
+  <si>
+    <t>2.095 K</t>
+  </si>
+  <si>
+    <t>GAA28655</t>
+  </si>
+  <si>
+    <t>GAA28517</t>
+  </si>
+  <si>
+    <t>GAA28237</t>
+  </si>
+  <si>
+    <t>4 900</t>
+  </si>
+  <si>
+    <t>1.517 K</t>
+  </si>
+  <si>
+    <t>GAA28120</t>
+  </si>
+  <si>
+    <t>1.770 K</t>
+  </si>
+  <si>
+    <t>GAA28058</t>
+  </si>
+  <si>
+    <t>TALLUSPIN</t>
+  </si>
+  <si>
+    <t>2.090 K</t>
+  </si>
+  <si>
+    <t>GAA28027</t>
+  </si>
+  <si>
+    <t>2.175 K</t>
+  </si>
+  <si>
+    <t>GAA27793</t>
+  </si>
+  <si>
+    <t>2.180 K</t>
+  </si>
+  <si>
+    <t>GAA27725</t>
+  </si>
+  <si>
+    <t>12.300 K</t>
+  </si>
+  <si>
+    <t>GAA27669</t>
+  </si>
+  <si>
+    <t>OAL</t>
+  </si>
+  <si>
+    <t>1 971</t>
+  </si>
+  <si>
+    <t>487.185 K</t>
+  </si>
+  <si>
+    <t>GAA26680</t>
+  </si>
+  <si>
+    <t>IBNSINA</t>
+  </si>
+  <si>
+    <t>GAA26635</t>
+  </si>
+  <si>
+    <t>GAA26247</t>
+  </si>
+  <si>
+    <t>GAA23894</t>
+  </si>
+  <si>
+    <t>9 500</t>
+  </si>
+  <si>
+    <t>MAKSONSPIN</t>
+  </si>
+  <si>
+    <t>GAA23139</t>
+  </si>
+  <si>
+    <t>GAA22964</t>
   </si>
   <si>
     <t>KPCL</t>
   </si>
   <si>
-    <t>4.718 K</t>
-  </si>
-  <si>
-    <t>GAA44720</t>
-  </si>
-  <si>
-    <t>18.868 K</t>
-  </si>
-  <si>
-    <t>GAA44513</t>
-  </si>
-  <si>
-    <t>76.500 K</t>
-  </si>
-  <si>
-    <t>GAA43877</t>
-  </si>
-  <si>
-    <t>RDFOOD</t>
-  </si>
-  <si>
-    <t>GAA43593</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>GAA43544</t>
-  </si>
-  <si>
-    <t>102.000 K</t>
-  </si>
-  <si>
-    <t>GAA42933</t>
-  </si>
-  <si>
-    <t>SAIFPOWER</t>
-  </si>
-  <si>
-    <t>4.773 K</t>
-  </si>
-  <si>
-    <t>GAA42872</t>
-  </si>
-  <si>
-    <t>GAA42316</t>
-  </si>
-  <si>
-    <t>10 000</t>
-  </si>
-  <si>
-    <t>FASFIN</t>
-  </si>
-  <si>
-    <t>12.260 K</t>
-  </si>
-  <si>
-    <t>GAA42269</t>
-  </si>
-  <si>
-    <t>MONNOCERA</t>
-  </si>
-  <si>
-    <t>GAA42173</t>
-  </si>
-  <si>
-    <t>KTL</t>
-  </si>
-  <si>
-    <t>12.400 K</t>
-  </si>
-  <si>
-    <t>GAA42083</t>
-  </si>
-  <si>
-    <t>12.435 K</t>
-  </si>
-  <si>
-    <t>GAA41837</t>
-  </si>
-  <si>
-    <t>4.230 K</t>
-  </si>
-  <si>
-    <t>GAA41483</t>
-  </si>
-  <si>
-    <t>GAA41044</t>
-  </si>
-  <si>
-    <t>1 000</t>
-  </si>
-  <si>
-    <t>GAA40926</t>
-  </si>
-  <si>
-    <t>KEYACOSMET</t>
-  </si>
-  <si>
-    <t>GAA40863</t>
-  </si>
-  <si>
-    <t>GAA40835</t>
-  </si>
-  <si>
-    <t>2 778</t>
-  </si>
-  <si>
-    <t>81.951 K</t>
-  </si>
-  <si>
-    <t>GAA40597</t>
-  </si>
-  <si>
-    <t>SILVAPHL</t>
-  </si>
-  <si>
-    <t>4.762 K</t>
-  </si>
-  <si>
-    <t>GAA39547</t>
-  </si>
-  <si>
-    <t>GAA39494</t>
-  </si>
-  <si>
-    <t>4 800</t>
-  </si>
-  <si>
-    <t>124.800 K</t>
-  </si>
-  <si>
-    <t>GAA38994</t>
-  </si>
-  <si>
-    <t>GAA38632</t>
-  </si>
-  <si>
-    <t>7.178 K</t>
-  </si>
-  <si>
-    <t>GAA36674</t>
-  </si>
-  <si>
-    <t>BEXIMCO</t>
-  </si>
-  <si>
-    <t>1.500 K</t>
-  </si>
-  <si>
-    <t>GAA36671</t>
-  </si>
-  <si>
-    <t>SONARBAINS</t>
-  </si>
-  <si>
-    <t>10.996 K</t>
-  </si>
-  <si>
-    <t>GAA36651</t>
-  </si>
-  <si>
-    <t>UNITEDINS</t>
-  </si>
-  <si>
-    <t>9.396 K</t>
-  </si>
-  <si>
-    <t>GAA36528</t>
-  </si>
-  <si>
-    <t>BDCOM</t>
-  </si>
-  <si>
-    <t>51.300 K</t>
-  </si>
-  <si>
-    <t>GAA36404</t>
-  </si>
-  <si>
-    <t>SINOBANGLA</t>
-  </si>
-  <si>
-    <t>5.934 K</t>
-  </si>
-  <si>
-    <t>GAA36241</t>
-  </si>
-  <si>
-    <t>AMANFEED</t>
-  </si>
-  <si>
-    <t>GAA36135</t>
-  </si>
-  <si>
-    <t>9.850 K</t>
-  </si>
-  <si>
-    <t>GAA36040</t>
-  </si>
-  <si>
-    <t>AGNISYSL</t>
-  </si>
-  <si>
-    <t>5.216 K</t>
-  </si>
-  <si>
-    <t>GAA35997</t>
-  </si>
-  <si>
-    <t>IBNSINA</t>
-  </si>
-  <si>
-    <t>37.141 K</t>
-  </si>
-  <si>
-    <t>GAA35731</t>
-  </si>
-  <si>
-    <t>GAA34533</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>92.200 K</t>
-  </si>
-  <si>
-    <t>GAA34243</t>
-  </si>
-  <si>
-    <t>HRTEX</t>
-  </si>
-  <si>
-    <t>GAA33863</t>
-  </si>
-  <si>
-    <t>GAA33611</t>
-  </si>
-  <si>
-    <t>2.560 K</t>
-  </si>
-  <si>
-    <t>GAA32523</t>
-  </si>
-  <si>
-    <t>PURABIGEN</t>
-  </si>
-  <si>
-    <t>4.729 K</t>
-  </si>
-  <si>
-    <t>GAA32318</t>
-  </si>
-  <si>
-    <t>GAA32109</t>
+    <t>2.965 K</t>
+  </si>
+  <si>
+    <t>GAA22728</t>
+  </si>
+  <si>
+    <t>GAA22511</t>
+  </si>
+  <si>
+    <t>1.560 K</t>
+  </si>
+  <si>
+    <t>GAA21967</t>
+  </si>
+  <si>
+    <t>GAA21822</t>
+  </si>
+  <si>
+    <t>2.096 K</t>
+  </si>
+  <si>
+    <t>GAA21505</t>
+  </si>
+  <si>
+    <t>KDSALTD</t>
+  </si>
+  <si>
+    <t>GAA21376</t>
+  </si>
+  <si>
+    <t>7.979 K</t>
+  </si>
+  <si>
+    <t>GAA21033</t>
+  </si>
+  <si>
+    <t>2.100 K</t>
+  </si>
+  <si>
+    <t>GAA20632</t>
+  </si>
+  <si>
+    <t>21.800 K</t>
+  </si>
+  <si>
+    <t>GAA20431</t>
+  </si>
+  <si>
+    <t>2.940 K</t>
+  </si>
+  <si>
+    <t>GAA20160</t>
+  </si>
+  <si>
+    <t>3.600 K</t>
+  </si>
+  <si>
+    <t>GAA19888</t>
+  </si>
+  <si>
+    <t>MITHUNKNIT</t>
+  </si>
+  <si>
+    <t>GAA19561</t>
+  </si>
+  <si>
+    <t>1.516 K</t>
+  </si>
+  <si>
+    <t>GAA19395</t>
+  </si>
+  <si>
+    <t>1 600.0000</t>
+  </si>
+  <si>
+    <t>3.200 K</t>
+  </si>
+  <si>
+    <t>GAA18680</t>
+  </si>
+  <si>
+    <t>MONNOSTAF</t>
+  </si>
+  <si>
+    <t>1 586.1000</t>
+  </si>
+  <si>
+    <t>GAA18356</t>
+  </si>
+  <si>
+    <t>GAA18248</t>
+  </si>
+  <si>
+    <t>490.385 K</t>
+  </si>
+  <si>
+    <t>GAA17881</t>
+  </si>
+  <si>
+    <t>22.960 K</t>
+  </si>
+  <si>
+    <t>GAA15813</t>
+  </si>
+  <si>
+    <t>JMISMDL</t>
+  </si>
+  <si>
+    <t>118.465 K</t>
+  </si>
+  <si>
+    <t>GAA12764</t>
+  </si>
+  <si>
+    <t>GAA12754</t>
+  </si>
+  <si>
+    <t>10.989 K</t>
+  </si>
+  <si>
+    <t>GAA10027</t>
+  </si>
+  <si>
+    <t>GAA9150</t>
+  </si>
+  <si>
+    <t>REGENTTEX</t>
+  </si>
+  <si>
+    <t>2.125 K</t>
+  </si>
+  <si>
+    <t>GAA9004</t>
+  </si>
+  <si>
+    <t>44.440 K</t>
+  </si>
+  <si>
+    <t>GAA7723</t>
+  </si>
+  <si>
+    <t>GAA7630</t>
+  </si>
+  <si>
+    <t>GAA7466</t>
+  </si>
+  <si>
+    <t>GAA7369</t>
+  </si>
+  <si>
+    <t>GAA5579</t>
+  </si>
+  <si>
+    <t>15 000</t>
+  </si>
+  <si>
+    <t>GAA5362</t>
+  </si>
+  <si>
+    <t>20 000</t>
+  </si>
+  <si>
+    <t>GAA5145</t>
+  </si>
+  <si>
+    <t>GAA4985</t>
+  </si>
+  <si>
+    <t>GAA4800</t>
+  </si>
+  <si>
+    <t>GAA4447</t>
+  </si>
+  <si>
+    <t>GAA3897</t>
   </si>
   <si>
     <t>ISLAMIINS</t>
   </si>
   <si>
-    <t>520.000 K</t>
-  </si>
-  <si>
-    <t>GAA30940</t>
-  </si>
-  <si>
-    <t>INTECH</t>
-  </si>
-  <si>
-    <t>4.794 K</t>
-  </si>
-  <si>
-    <t>GAA29154</t>
-  </si>
-  <si>
-    <t>4.751 K</t>
-  </si>
-  <si>
-    <t>GAA28418</t>
-  </si>
-  <si>
-    <t>4.740 K</t>
-  </si>
-  <si>
-    <t>GAA28214</t>
-  </si>
-  <si>
-    <t>GAA27781</t>
-  </si>
-  <si>
-    <t>GAA27043</t>
-  </si>
-  <si>
-    <t>4.784 K</t>
-  </si>
-  <si>
-    <t>GAA26255</t>
-  </si>
-  <si>
-    <t>4.795 K</t>
-  </si>
-  <si>
-    <t>GAA25828</t>
-  </si>
-  <si>
-    <t>1 700</t>
-  </si>
-  <si>
-    <t>91.630 K</t>
-  </si>
-  <si>
-    <t>GAA25789</t>
-  </si>
-  <si>
-    <t>ORIONINFU</t>
-  </si>
-  <si>
-    <t>25.700 K</t>
-  </si>
-  <si>
-    <t>GAA23856</t>
-  </si>
-  <si>
-    <t>4.414 K</t>
-  </si>
-  <si>
-    <t>GAA22903</t>
-  </si>
-  <si>
-    <t>GAA22776</t>
-  </si>
-  <si>
-    <t>2.330 K</t>
-  </si>
-  <si>
-    <t>GAA22408</t>
-  </si>
-  <si>
-    <t>4.806 K</t>
-  </si>
-  <si>
-    <t>GAA22178</t>
-  </si>
-  <si>
-    <t>25 000</t>
-  </si>
-  <si>
-    <t>212.500 K</t>
-  </si>
-  <si>
-    <t>GAA22083</t>
-  </si>
-  <si>
-    <t>RNSPIN</t>
-  </si>
-  <si>
-    <t>GAA21900</t>
-  </si>
-  <si>
-    <t>49.620 K</t>
-  </si>
-  <si>
-    <t>GAA21183</t>
-  </si>
-  <si>
-    <t>28.200 K</t>
-  </si>
-  <si>
-    <t>GAA21155</t>
-  </si>
-  <si>
-    <t>GLOBALINS</t>
-  </si>
-  <si>
-    <t>GAA19877</t>
-  </si>
-  <si>
-    <t>7 628</t>
-  </si>
-  <si>
-    <t>99.164 K</t>
-  </si>
-  <si>
-    <t>GAA18809</t>
-  </si>
-  <si>
-    <t>DESHBANDHU</t>
-  </si>
-  <si>
-    <t>GAA18320</t>
-  </si>
-  <si>
-    <t>17.436 K</t>
-  </si>
-  <si>
-    <t>GAA17441</t>
-  </si>
-  <si>
-    <t>1.373 K</t>
-  </si>
-  <si>
-    <t>GAA17321</t>
-  </si>
-  <si>
-    <t>APEXFOOT</t>
-  </si>
-  <si>
-    <t>1 225</t>
-  </si>
-  <si>
-    <t>53.533 K</t>
-  </si>
-  <si>
-    <t>GAA17064</t>
-  </si>
-  <si>
-    <t>GAA17060</t>
-  </si>
-  <si>
-    <t>TALLUSPIN</t>
-  </si>
-  <si>
-    <t>4.200 K</t>
-  </si>
-  <si>
-    <t>GAA16890</t>
-  </si>
-  <si>
-    <t>ICBIBANK</t>
-  </si>
-  <si>
-    <t>1 111</t>
-  </si>
-  <si>
-    <t>28.775 K</t>
-  </si>
-  <si>
-    <t>GAA16883</t>
-  </si>
-  <si>
-    <t>16.218 K</t>
-  </si>
-  <si>
-    <t>GAA15568</t>
-  </si>
-  <si>
-    <t>BDTHAI</t>
-  </si>
-  <si>
-    <t>GAA15184</t>
-  </si>
-  <si>
-    <t>GAA13997</t>
-  </si>
-  <si>
-    <t>KPPL</t>
-  </si>
-  <si>
-    <t>16.370 K</t>
-  </si>
-  <si>
-    <t>GAA12996</t>
-  </si>
-  <si>
-    <t>APEXFOODS</t>
-  </si>
-  <si>
-    <t>GAA12852</t>
-  </si>
-  <si>
-    <t>PHARMAID</t>
-  </si>
-  <si>
-    <t>6.080 K</t>
-  </si>
-  <si>
-    <t>GAA11765</t>
-  </si>
-  <si>
-    <t>1 200</t>
-  </si>
-  <si>
-    <t>42.480 K</t>
-  </si>
-  <si>
-    <t>GAA11588</t>
-  </si>
-  <si>
-    <t>MIRACLEIND</t>
-  </si>
-  <si>
-    <t>12.166 K</t>
-  </si>
-  <si>
-    <t>GAA10952</t>
-  </si>
-  <si>
-    <t>GAA10879</t>
-  </si>
-  <si>
-    <t>496.400 K</t>
-  </si>
-  <si>
-    <t>GAA10781</t>
-  </si>
-  <si>
-    <t>Expired</t>
-  </si>
-  <si>
-    <t>GAA10045</t>
-  </si>
-  <si>
-    <t>AMBEEPHA</t>
-  </si>
-  <si>
-    <t>GAA9741</t>
-  </si>
-  <si>
-    <t>GAA9157</t>
-  </si>
-  <si>
-    <t>SPCL</t>
-  </si>
-  <si>
-    <t>GAA9017</t>
-  </si>
-  <si>
-    <t>5.166 K</t>
-  </si>
-  <si>
-    <t>GAA8972</t>
-  </si>
-  <si>
-    <t>GAA8897</t>
-  </si>
-  <si>
-    <t>8 000</t>
-  </si>
-  <si>
-    <t>CENTRALPHL</t>
-  </si>
-  <si>
-    <t>GAA8520</t>
-  </si>
-  <si>
-    <t>GAA8199</t>
-  </si>
-  <si>
-    <t>GAA6442</t>
-  </si>
-  <si>
-    <t>GAA6333</t>
-  </si>
-  <si>
-    <t>GAA6194</t>
-  </si>
-  <si>
-    <t>2 246.9000</t>
-  </si>
-  <si>
-    <t>GAA5501</t>
-  </si>
-  <si>
-    <t>RECKITTBEN</t>
-  </si>
-  <si>
-    <t>GAA4675</t>
-  </si>
-  <si>
-    <t>GAA4646</t>
-  </si>
-  <si>
-    <t>131.000 K</t>
-  </si>
-  <si>
-    <t>GAA4250</t>
-  </si>
-  <si>
-    <t>GAA4174</t>
-  </si>
-  <si>
-    <t>GAA4155</t>
-  </si>
-  <si>
-    <t>GAA3451</t>
-  </si>
-  <si>
-    <t>19.300 K</t>
-  </si>
-  <si>
-    <t>GAA3086</t>
-  </si>
-  <si>
-    <t>LEGACYFOOT</t>
+    <t>GAA3877</t>
+  </si>
+  <si>
+    <t>GAA3457</t>
+  </si>
+  <si>
+    <t>GAA3404</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M107"/>
+      <selection sqref="A1:M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1144,43 +1168,43 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>25492</v>
+        <v>25049</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>41.8</v>
+        <v>305</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1">
-        <v>0.39486111111111111</v>
+        <v>0.39564814814814814</v>
       </c>
       <c r="I2" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1188,28 +1212,28 @@
         <v>25492</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>84</v>
-      </c>
-      <c r="D3">
-        <v>431</v>
+        <v>32.1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1">
-        <v>0.39414351851851853</v>
+        <v>0.39564814814814814</v>
       </c>
       <c r="I3" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1217,8 +1241,8 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>431</v>
+      <c r="L3" t="s">
+        <v>20</v>
       </c>
       <c r="M3" t="s">
         <v>23</v>
@@ -1226,54 +1250,54 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>26515</v>
+        <v>24705</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>296.3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.39508101851851851</v>
+      </c>
+      <c r="I4" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4">
-        <v>174.9</v>
-      </c>
-      <c r="D4">
-        <v>290</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.39359953703703704</v>
-      </c>
-      <c r="I4" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>290</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>26515</v>
+        <v>16051</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>175.2</v>
+        <v>9.1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1282,80 +1306,80 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.39498842592592592</v>
+      </c>
+      <c r="I5" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.39333333333333331</v>
-      </c>
-      <c r="I5" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>290</v>
+      <c r="L5" t="s">
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>25059</v>
+        <v>25492</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>25.7</v>
+        <v>41.4</v>
       </c>
       <c r="D6">
-        <v>430</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1">
-        <v>0.39333333333333331</v>
+        <v>0.39453703703703707</v>
       </c>
       <c r="I6" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>430</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>26515</v>
+        <v>21769</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>175.1</v>
+        <v>15.9</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1364,69 +1388,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1">
-        <v>0.39321759259259265</v>
+        <v>0.39429398148148148</v>
       </c>
       <c r="I7" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>290</v>
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>26515</v>
+        <v>21769</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>175.3</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>13.1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1">
-        <v>0.39300925925925928</v>
+        <v>0.39408564814814812</v>
       </c>
       <c r="I8" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>290</v>
+        <v>318</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1437,89 +1461,89 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="D9">
-        <v>111</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1">
-        <v>0.3929050925925926</v>
+        <v>0.39407407407407408</v>
       </c>
       <c r="I9" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>16051</v>
+        <v>21769</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>14.8</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1">
-        <v>0.39246527777777779</v>
+        <v>0.39390046296296299</v>
       </c>
       <c r="I10" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>26515</v>
+        <v>24705</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>175.4</v>
+        <v>10.9</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1528,69 +1552,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1">
-        <v>0.39239583333333333</v>
+        <v>0.39377314814814812</v>
       </c>
       <c r="I11" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>290</v>
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>21769</v>
+        <v>2864</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>53.6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
+        <v>17.3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.39314814814814819</v>
+      </c>
+      <c r="I12" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.3911458333333333</v>
-      </c>
-      <c r="I12" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1598,81 +1622,81 @@
         <v>25492</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>42.5</v>
+        <v>64.3</v>
       </c>
       <c r="D13">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1">
-        <v>0.39078703703703704</v>
+        <v>0.39231481481481478</v>
       </c>
       <c r="I13" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>25492</v>
+        <v>25059</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>42.4</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>445</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1">
-        <v>0.39030092592592597</v>
+        <v>0.39218749999999997</v>
       </c>
       <c r="I14" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>445</v>
+        <v>95</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1683,48 +1707,48 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.39206018518518521</v>
+      </c>
+      <c r="I15" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.38870370370370372</v>
-      </c>
-      <c r="I15" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>42</v>
-      </c>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>25492</v>
+        <v>25016</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>42.8</v>
+        <v>8.9</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1733,233 +1757,233 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.39056712962962964</v>
+      </c>
+      <c r="I16" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>91.5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="1">
-        <v>0.38793981481481482</v>
-      </c>
-      <c r="I16" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>111</v>
-      </c>
-      <c r="M16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
-        <v>16051</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>14.6</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1">
-        <v>0.38783564814814814</v>
+        <v>0.3901041666666667</v>
       </c>
       <c r="I17" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18">
-        <v>16051</v>
+      <c r="A18" t="s">
+        <v>64</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
+        <v>91.4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.3899305555555555</v>
+      </c>
+      <c r="I18" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
         <v>20</v>
       </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.38626157407407408</v>
-      </c>
-      <c r="I18" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>42</v>
-      </c>
       <c r="M18" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19">
-        <v>25492</v>
+      <c r="A19" t="s">
+        <v>64</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>91.1</v>
       </c>
       <c r="D19">
-        <v>111</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.38981481481481484</v>
+      </c>
+      <c r="I19" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
         <v>20</v>
       </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.38612268518518517</v>
-      </c>
-      <c r="I19" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>111</v>
-      </c>
       <c r="M19" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>24667</v>
+        <v>25492</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>13.1</v>
+        <v>866.2</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1">
-        <v>0.38466435185185183</v>
+        <v>0.38951388888888888</v>
       </c>
       <c r="I20" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>25046</v>
+        <v>25049</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21">
-        <v>245.2</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H21" s="1">
-        <v>0.38452546296296292</v>
+        <v>0.38931712962962961</v>
       </c>
       <c r="I21" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="M21" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1970,7 +1994,7 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>25.8</v>
+        <v>39.9</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1979,110 +2003,110 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H22" s="1">
-        <v>0.38425925925925924</v>
+        <v>0.38719907407407406</v>
       </c>
       <c r="I22" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>25046</v>
+        <v>25492</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H23" s="1">
-        <v>0.38407407407407407</v>
+        <v>0.38252314814814814</v>
       </c>
       <c r="I23" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>50</v>
+      <c r="L23" t="s">
+        <v>79</v>
       </c>
       <c r="M23" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>25046</v>
+        <v>16051</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24">
-        <v>248.7</v>
-      </c>
-      <c r="D24">
-        <v>50</v>
+        <v>15.1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H24" s="1">
-        <v>0.38343750000000004</v>
+        <v>0.38177083333333334</v>
       </c>
       <c r="I24" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J24" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>50</v>
+      <c r="L24" t="s">
+        <v>36</v>
       </c>
       <c r="M24" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2090,40 +2114,40 @@
         <v>25492</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>84.6</v>
+        <v>302</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" s="1">
-        <v>0.38250000000000001</v>
+        <v>0.38097222222222221</v>
       </c>
       <c r="I25" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>481</v>
+        <v>33</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2134,7 +2158,7 @@
         <v>13</v>
       </c>
       <c r="C26">
-        <v>42.9</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2143,69 +2167,69 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H26" s="1">
-        <v>0.38105324074074076</v>
+        <v>0.37976851851851851</v>
       </c>
       <c r="I26" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26" t="s">
-        <v>79</v>
+      <c r="L26">
+        <v>300</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>7344</v>
+        <v>25492</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>6.3</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>126</v>
+        <v>443</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H27" s="1">
-        <v>0.38065972222222227</v>
+        <v>0.37814814814814812</v>
       </c>
       <c r="I27" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>443</v>
       </c>
       <c r="M27" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2213,51 +2237,51 @@
         <v>25492</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C28">
-        <v>42.9</v>
+        <v>323.2</v>
       </c>
       <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="1">
-        <v>0.38047453703703704</v>
+        <v>0.37606481481481485</v>
       </c>
       <c r="I28" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>26515</v>
+        <v>24667</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>179</v>
+        <v>13.4</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2266,121 +2290,121 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H29" s="1">
-        <v>0.38038194444444445</v>
+        <v>0.37366898148148148</v>
       </c>
       <c r="I29" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>290</v>
+        <v>94</v>
+      </c>
+      <c r="K29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" t="s">
+        <v>95</v>
       </c>
       <c r="M29" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>25492</v>
+        <v>24667</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>29.5</v>
+        <v>13.5</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H30" s="1">
-        <v>0.37967592592592592</v>
+        <v>0.37356481481481479</v>
       </c>
       <c r="I30" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="M30" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>25492</v>
+        <v>26513</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31">
-        <v>42.9</v>
-      </c>
-      <c r="D31">
-        <v>111</v>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H31" s="1">
-        <v>0.37652777777777779</v>
+        <v>0.37339120370370371</v>
       </c>
       <c r="I31" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>111</v>
+        <v>900</v>
+      </c>
+      <c r="L31" t="s">
+        <v>102</v>
       </c>
       <c r="M31" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>25059</v>
+        <v>25492</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>24.8</v>
+        <v>45</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2389,429 +2413,429 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H32" s="1">
-        <v>0.37631944444444443</v>
+        <v>0.36752314814814818</v>
       </c>
       <c r="I32" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="L32">
-        <v>445</v>
+      <c r="L32" t="s">
+        <v>106</v>
       </c>
       <c r="M32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>25015</v>
+        <v>16051</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
+        <v>26.9</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H33" s="1">
-        <v>0.37468750000000001</v>
+        <v>0.36414351851851851</v>
       </c>
       <c r="I33" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J33" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33" t="s">
-        <v>91</v>
+      <c r="L33">
+        <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
-        <v>25059</v>
+        <v>25492</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34">
-        <v>24.5</v>
+        <v>187</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H34" s="1">
-        <v>0.37332175925925926</v>
+        <v>0.36342592592592587</v>
       </c>
       <c r="I34" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J34" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>450</v>
+        <v>28</v>
       </c>
       <c r="M34" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35">
-        <v>25492</v>
+        <v>24705</v>
       </c>
       <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>298</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.35906250000000001</v>
+      </c>
+      <c r="I35" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J35" t="s">
+        <v>114</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35" t="s">
         <v>18</v>
-      </c>
-      <c r="C35">
-        <v>21.3</v>
-      </c>
-      <c r="D35">
-        <v>337</v>
-      </c>
-      <c r="E35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.36387731481481483</v>
-      </c>
-      <c r="I35" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J35" t="s">
-        <v>96</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>337</v>
-      </c>
-      <c r="M35" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36">
-        <v>16051</v>
+        <v>25016</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="D36">
-        <v>100</v>
-      </c>
-      <c r="E36" t="s">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H36" s="1">
-        <v>0.3638657407407408</v>
+        <v>0.35900462962962965</v>
       </c>
       <c r="I36" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J36" t="s">
-        <v>99</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>100</v>
+        <v>115</v>
+      </c>
+      <c r="K36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L36" t="s">
+        <v>95</v>
       </c>
       <c r="M36" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37">
-        <v>25059</v>
+        <v>25016</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C37">
-        <v>23.1</v>
+        <v>14.4</v>
       </c>
       <c r="D37">
-        <v>476</v>
-      </c>
-      <c r="E37" t="s">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H37" s="1">
-        <v>0.36378472222222219</v>
+        <v>0.35820601851851852</v>
       </c>
       <c r="I37" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J37" t="s">
-        <v>102</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>476</v>
+        <v>116</v>
+      </c>
+      <c r="K37" t="s">
+        <v>117</v>
+      </c>
+      <c r="L37" t="s">
+        <v>117</v>
       </c>
       <c r="M37" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38">
-        <v>25492</v>
+        <v>25059</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>26.1</v>
+        <v>56.4</v>
       </c>
       <c r="D38">
-        <v>360</v>
-      </c>
-      <c r="E38" t="s">
-        <v>104</v>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H38" s="1">
-        <v>0.36333333333333334</v>
+        <v>0.35811342592592593</v>
       </c>
       <c r="I38" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J38" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>360</v>
+        <v>95</v>
       </c>
       <c r="M38" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39">
-        <v>26515</v>
+        <v>16051</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39">
-        <v>51.4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" t="s">
-        <v>107</v>
+        <v>45.1</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>902</v>
       </c>
       <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.35746527777777781</v>
+      </c>
+      <c r="I39" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>20</v>
       </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.36276620370370366</v>
-      </c>
-      <c r="I39" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J39" t="s">
-        <v>108</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39" t="s">
-        <v>79</v>
-      </c>
       <c r="M39" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40">
-        <v>25492</v>
+        <v>25059</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C40">
-        <v>45.3</v>
+        <v>12.7</v>
       </c>
       <c r="D40">
-        <v>131</v>
+        <v>420</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H40" s="1">
-        <v>0.36203703703703699</v>
+        <v>0.35575231481481479</v>
       </c>
       <c r="I40" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J40" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>131</v>
+        <v>420</v>
       </c>
       <c r="M40" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
-        <v>26515</v>
+        <v>16051</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41">
-        <v>50.1</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>125</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H41" s="1">
-        <v>0.36157407407407405</v>
+        <v>0.35554398148148153</v>
       </c>
       <c r="I41" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J41" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="M41" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42">
-        <v>25492</v>
+        <v>16051</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C42">
-        <v>19.7</v>
+        <v>9.1</v>
       </c>
       <c r="D42">
         <v>500</v>
       </c>
       <c r="E42" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H42" s="1">
-        <v>0.36116898148148152</v>
+        <v>0.35476851851851854</v>
       </c>
       <c r="I42" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J42" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2820,100 +2844,100 @@
         <v>500</v>
       </c>
       <c r="M42" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43">
-        <v>25562</v>
+        <v>2864</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>248.4</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D43">
-        <v>21</v>
-      </c>
-      <c r="E43" t="s">
-        <v>117</v>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H43" s="1">
-        <v>0.36098379629629629</v>
+        <v>0.3417824074074074</v>
       </c>
       <c r="I43" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J43" t="s">
-        <v>118</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>21</v>
+        <v>130</v>
+      </c>
+      <c r="K43" t="s">
+        <v>131</v>
+      </c>
+      <c r="L43" t="s">
+        <v>131</v>
       </c>
       <c r="M43" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44">
-        <v>25492</v>
+        <v>26513</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44">
-        <v>54.3</v>
-      </c>
-      <c r="D44">
-        <v>684</v>
+        <v>71</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H44" s="1">
-        <v>0.35979166666666668</v>
+        <v>0.33001157407407405</v>
       </c>
       <c r="I44" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J44" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
-      <c r="L44">
-        <v>684</v>
+      <c r="L44" t="s">
+        <v>132</v>
       </c>
       <c r="M44" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
-        <v>25492</v>
+        <v>26513</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C45">
-        <v>42.4</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2922,110 +2946,110 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.32997685185185183</v>
+      </c>
+      <c r="I45" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J45" t="s">
+        <v>135</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>132</v>
+      </c>
+      <c r="M45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>26513</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>71.2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.3299421296296296</v>
+      </c>
+      <c r="I46" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>132</v>
+      </c>
+      <c r="M46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>192.3</v>
+      </c>
+      <c r="D47">
+        <v>300</v>
+      </c>
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="1">
-        <v>0.35357638888888893</v>
-      </c>
-      <c r="I45" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J45" t="s">
-        <v>122</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>111</v>
-      </c>
-      <c r="M45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46">
-        <v>46.1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.35187499999999999</v>
-      </c>
-      <c r="I46" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J46" t="s">
-        <v>125</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46" t="s">
-        <v>45</v>
-      </c>
-      <c r="M46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47">
-        <v>25492</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47">
-        <v>42.3</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H47" s="1">
-        <v>0.34936342592592595</v>
+        <v>0.32400462962962967</v>
       </c>
       <c r="I47" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J47" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
       <c r="L47">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="M47" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3036,78 +3060,78 @@
         <v>13</v>
       </c>
       <c r="C48">
-        <v>42.5</v>
+        <v>41.5</v>
       </c>
       <c r="D48">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H48" s="1">
-        <v>0.34743055555555552</v>
+        <v>0.31962962962962965</v>
       </c>
       <c r="I48" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J48" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="M48" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
-        <v>25059</v>
+        <v>25492</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49">
-        <v>12.8</v>
+        <v>53.5</v>
       </c>
       <c r="D49">
-        <v>200</v>
-      </c>
-      <c r="E49" t="s">
-        <v>129</v>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H49" s="1">
-        <v>0.34103009259259259</v>
+        <v>0.31790509259259259</v>
       </c>
       <c r="I49" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J49" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="M49" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3118,201 +3142,201 @@
         <v>13</v>
       </c>
       <c r="C50">
-        <v>42.6</v>
+        <v>41.6</v>
       </c>
       <c r="D50">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H50" s="1">
-        <v>0.33961805555555552</v>
+        <v>0.31582175925925926</v>
       </c>
       <c r="I50" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J50" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="M50" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51">
-        <v>25059</v>
+        <v>25049</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>12.1</v>
       </c>
       <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E51" t="s">
+        <v>146</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H51" s="1">
-        <v>0.33814814814814814</v>
+        <v>0.31239583333333332</v>
       </c>
       <c r="I51" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J51" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="M51" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52">
-        <v>26161</v>
+        <v>25049</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="C52">
-        <v>52</v>
-      </c>
-      <c r="D52" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" t="s">
-        <v>136</v>
+        <v>296.10000000000002</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H52" s="1">
-        <v>0.33146990740740739</v>
+        <v>0.31200231481481483</v>
       </c>
       <c r="I52" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J52" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52" t="s">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>10</v>
       </c>
       <c r="M52" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53">
-        <v>25492</v>
+        <v>25049</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53">
-        <v>42.8</v>
+        <v>8.6</v>
       </c>
       <c r="D53">
-        <v>112</v>
-      </c>
-      <c r="E53" t="s">
-        <v>139</v>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H53" s="1">
-        <v>0.32143518518518516</v>
+        <v>0.3115046296296296</v>
       </c>
       <c r="I53" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J53" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L53">
-        <v>112</v>
+        <v>300</v>
       </c>
       <c r="M53" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
-        <v>25492</v>
+        <v>25049</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="C54">
-        <v>42.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D54">
-        <v>111</v>
+        <v>400</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H54" s="1">
-        <v>0.31697916666666665</v>
+        <v>0.31121527777777774</v>
       </c>
       <c r="I54" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J54" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>111</v>
+        <v>400</v>
       </c>
       <c r="M54" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3323,37 +3347,37 @@
         <v>13</v>
       </c>
       <c r="C55">
-        <v>42.7</v>
+        <v>41.6</v>
       </c>
       <c r="D55">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H55" s="1">
-        <v>0.31599537037037034</v>
+        <v>0.31033564814814812</v>
       </c>
       <c r="I55" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J55" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="M55" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3364,37 +3388,37 @@
         <v>13</v>
       </c>
       <c r="C56">
-        <v>43</v>
+        <v>41.7</v>
       </c>
       <c r="D56">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H56" s="1">
-        <v>0.31350694444444444</v>
+        <v>0.30815972222222221</v>
       </c>
       <c r="I56" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J56" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="M56" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3405,201 +3429,201 @@
         <v>13</v>
       </c>
       <c r="C57">
-        <v>43</v>
+        <v>41.6</v>
       </c>
       <c r="D57">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H57" s="1">
-        <v>0.30957175925925923</v>
+        <v>0.30766203703703704</v>
       </c>
       <c r="I57" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J57" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="M57" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58">
-        <v>25492</v>
+      <c r="A58" t="s">
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C58">
-        <v>43.1</v>
-      </c>
-      <c r="D58">
-        <v>111</v>
+        <v>48.4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>131</v>
       </c>
       <c r="E58" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H58" s="1">
-        <v>0.30554398148148149</v>
+        <v>0.30736111111111114</v>
       </c>
       <c r="I58" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J58" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
-      <c r="L58">
-        <v>111</v>
+      <c r="L58" t="s">
+        <v>131</v>
       </c>
       <c r="M58" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59">
-        <v>25492</v>
+      <c r="A59" t="s">
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>43.2</v>
+        <v>48.6</v>
       </c>
       <c r="D59">
-        <v>111</v>
-      </c>
-      <c r="E59" t="s">
-        <v>149</v>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="H59" s="1">
-        <v>0.30327546296296298</v>
+        <v>0.30731481481481482</v>
       </c>
       <c r="I59" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J59" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
-      <c r="L59">
-        <v>111</v>
+      <c r="L59" t="s">
+        <v>131</v>
       </c>
       <c r="M59" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60">
-        <v>25497</v>
+      <c r="A60" t="s">
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>53.9</v>
-      </c>
-      <c r="D60" t="s">
-        <v>151</v>
-      </c>
-      <c r="E60" t="s">
-        <v>152</v>
+        <v>48.7</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="H60" s="1">
-        <v>0.30303240740740739</v>
+        <v>0.3072685185185185</v>
       </c>
       <c r="I60" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J60" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="M60" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61">
-        <v>25386</v>
+        <v>25492</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61">
-        <v>25.7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>79</v>
+        <v>41.9</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H61" s="1">
-        <v>0.29222222222222222</v>
+        <v>0.30710648148148151</v>
       </c>
       <c r="I61" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J61" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
-      <c r="L61" t="s">
-        <v>79</v>
+      <c r="L61">
+        <v>50</v>
       </c>
       <c r="M61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3610,48 +3634,48 @@
         <v>13</v>
       </c>
       <c r="C62">
-        <v>43.7</v>
+        <v>322</v>
       </c>
       <c r="D62">
-        <v>101</v>
-      </c>
-      <c r="E62" t="s">
-        <v>157</v>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G62" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H62" s="1">
-        <v>0.28613425925925923</v>
+        <v>0.30644675925925929</v>
       </c>
       <c r="I62" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J62" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
       <c r="L62">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="M62" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63">
-        <v>24667</v>
+        <v>25492</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C63">
-        <v>13.3</v>
+        <v>12.9</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3660,224 +3684,224 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H63" s="1">
-        <v>0.28545138888888888</v>
+        <v>0.30505787037037035</v>
       </c>
       <c r="I63" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J63" t="s">
-        <v>159</v>
-      </c>
-      <c r="K63" t="s">
-        <v>65</v>
+        <v>165</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="M63" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64">
-        <v>25059</v>
+        <v>25049</v>
       </c>
       <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>303.39999999999998</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>167</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.30450231481481482</v>
+      </c>
+      <c r="I64" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J64" t="s">
+        <v>168</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64" t="s">
         <v>18</v>
-      </c>
-      <c r="C64">
-        <v>23.3</v>
-      </c>
-      <c r="D64">
-        <v>100</v>
-      </c>
-      <c r="E64" t="s">
-        <v>160</v>
-      </c>
-      <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0.28361111111111109</v>
-      </c>
-      <c r="I64" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J64" t="s">
-        <v>161</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>576</v>
-      </c>
-      <c r="M64" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65">
-        <v>25492</v>
+        <v>25049</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C65">
-        <v>43.3</v>
+        <v>5.9</v>
       </c>
       <c r="D65">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H65" s="1">
-        <v>0.28250000000000003</v>
+        <v>0.30414351851851851</v>
       </c>
       <c r="I65" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J65" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="M65" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66">
-        <v>25015</v>
+        <v>25492</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66">
-        <v>8.5</v>
-      </c>
-      <c r="D66" t="s">
-        <v>164</v>
+        <v>41.8</v>
+      </c>
+      <c r="D66">
+        <v>50</v>
       </c>
       <c r="E66" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H66" s="1">
-        <v>0.28195601851851854</v>
+        <v>0.30395833333333333</v>
       </c>
       <c r="I66" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J66" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
-      <c r="L66" t="s">
-        <v>164</v>
+      <c r="L66">
+        <v>50</v>
       </c>
       <c r="M66" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67">
-        <v>25492</v>
+        <v>24705</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
+        <v>250</v>
+      </c>
+      <c r="E67" t="s">
+        <v>174</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H67" s="1">
-        <v>0.28109953703703705</v>
+        <v>0.30281249999999998</v>
       </c>
       <c r="I67" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J67" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M67" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" t="s">
-        <v>123</v>
+      <c r="A68">
+        <v>24705</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C68">
-        <v>248.1</v>
+        <v>10.9</v>
       </c>
       <c r="D68">
         <v>200</v>
       </c>
       <c r="E68" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H68" s="1">
-        <v>0.27783564814814815</v>
+        <v>0.3024884259259259</v>
       </c>
       <c r="I68" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J68" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3886,141 +3910,141 @@
         <v>200</v>
       </c>
       <c r="M68" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" t="s">
-        <v>123</v>
+      <c r="A69">
+        <v>24705</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C69">
-        <v>14.1</v>
+        <v>12.3</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.30224537037037036</v>
+      </c>
+      <c r="I69" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J69" t="s">
+        <v>179</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
         <v>20</v>
       </c>
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0.27769675925925924</v>
-      </c>
-      <c r="I69" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J69" t="s">
-        <v>172</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69" t="s">
-        <v>45</v>
-      </c>
       <c r="M69" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70">
-        <v>16051</v>
+        <v>26057</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
       <c r="C70">
-        <v>6.1</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
+        <v>247.2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" t="s">
+        <v>182</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H70" s="1">
-        <v>0.27144675925925926</v>
+        <v>0.29749999999999999</v>
       </c>
       <c r="I70" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J70" t="s">
-        <v>174</v>
-      </c>
-      <c r="K70" t="s">
-        <v>42</v>
+        <v>183</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="M70" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71">
-        <v>21769</v>
+        <v>26057</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s">
-        <v>175</v>
-      </c>
-      <c r="E71" t="s">
-        <v>176</v>
+        <v>248</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="H71" s="1">
-        <v>0.26686342592592593</v>
+        <v>0.29731481481481481</v>
       </c>
       <c r="I71" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J71" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M71" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72">
-        <v>25492</v>
+        <v>26057</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>44.5</v>
+        <v>247.1</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4029,110 +4053,110 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H72" s="1">
-        <v>0.26497685185185188</v>
+        <v>0.29552083333333334</v>
       </c>
       <c r="I72" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J72" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
-      <c r="L72">
-        <v>51</v>
+      <c r="L72" t="s">
+        <v>181</v>
       </c>
       <c r="M72" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73">
-        <v>25492</v>
+        <v>26652</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
       </c>
       <c r="C73">
-        <v>43.7</v>
+        <v>7.5</v>
       </c>
       <c r="D73">
-        <v>399</v>
-      </c>
-      <c r="E73" t="s">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H73" s="1">
-        <v>0.26157407407407407</v>
+        <v>0.2850462962962963</v>
       </c>
       <c r="I73" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J73" t="s">
-        <v>181</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>399</v>
+        <v>187</v>
+      </c>
+      <c r="K73" t="s">
+        <v>188</v>
+      </c>
+      <c r="L73" t="s">
+        <v>188</v>
       </c>
       <c r="M73" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74">
-        <v>24705</v>
+        <v>25492</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74">
-        <v>274.5</v>
+        <v>41.4</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H74" s="1">
-        <v>0.26116898148148149</v>
+        <v>0.28065972222222224</v>
       </c>
       <c r="I74" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J74" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="M74" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4143,242 +4167,242 @@
         <v>13</v>
       </c>
       <c r="C75">
-        <v>43.7</v>
-      </c>
-      <c r="D75" t="s">
-        <v>185</v>
-      </c>
-      <c r="E75" t="s">
-        <v>186</v>
+        <v>59.2</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H75" s="1">
-        <v>0.26023148148148151</v>
+        <v>0.27993055555555557</v>
       </c>
       <c r="I75" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J75" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
-      <c r="L75" t="s">
-        <v>185</v>
+      <c r="L75">
+        <v>50</v>
       </c>
       <c r="M75" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76">
-        <v>24705</v>
+        <v>25492</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
       </c>
       <c r="C76">
-        <v>5.4</v>
+        <v>59.3</v>
       </c>
       <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="E76" t="s">
+        <v>193</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H76" s="1">
-        <v>0.26020833333333332</v>
+        <v>0.27881944444444445</v>
       </c>
       <c r="I76" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J76" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="M76" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77">
-        <v>24705</v>
+        <v>25492</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>4.2</v>
-      </c>
-      <c r="D77" t="s">
-        <v>79</v>
+        <v>41.5</v>
+      </c>
+      <c r="D77">
+        <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H77" s="1">
-        <v>0.25972222222222224</v>
+        <v>0.27767361111111111</v>
       </c>
       <c r="I77" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J77" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
-      <c r="L77" t="s">
-        <v>79</v>
+      <c r="L77">
+        <v>50</v>
       </c>
       <c r="M77" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78">
-        <v>25492</v>
+        <v>25049</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
       </c>
       <c r="C78">
-        <v>25.9</v>
-      </c>
-      <c r="D78" t="s">
-        <v>193</v>
+        <v>5.2</v>
+      </c>
+      <c r="D78">
+        <v>300</v>
       </c>
       <c r="E78" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H78" s="1">
-        <v>0.25969907407407405</v>
+        <v>0.27505787037037038</v>
       </c>
       <c r="I78" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J78" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
-      <c r="L78" t="s">
-        <v>193</v>
+      <c r="L78">
+        <v>300</v>
       </c>
       <c r="M78" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79">
-        <v>25492</v>
+        <v>25049</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C79">
-        <v>20.9</v>
+        <v>12.4</v>
       </c>
       <c r="D79">
-        <v>776</v>
-      </c>
-      <c r="E79" t="s">
-        <v>196</v>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H79" s="1">
-        <v>0.25569444444444445</v>
+        <v>0.27446759259259262</v>
       </c>
       <c r="I79" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L79">
-        <v>776</v>
+        <v>200</v>
       </c>
       <c r="M79" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80">
-        <v>25492</v>
+        <v>25049</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
       </c>
       <c r="C80">
-        <v>43.1</v>
+        <v>52.4</v>
       </c>
       <c r="D80">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H80" s="1">
-        <v>0.25451388888888887</v>
+        <v>0.2732060185185185</v>
       </c>
       <c r="I80" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="M80" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4389,148 +4413,148 @@
         <v>13</v>
       </c>
       <c r="C81">
-        <v>18.5</v>
+        <v>41.6</v>
       </c>
       <c r="D81">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H81" s="1">
-        <v>0.25069444444444444</v>
+        <v>0.27269675925925924</v>
       </c>
       <c r="I81" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J81" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="M81" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82">
-        <v>25386</v>
+        <v>25492</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
       </c>
       <c r="C82">
-        <v>163.69999999999999</v>
+        <v>888</v>
       </c>
       <c r="D82">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H82" s="1">
-        <v>0.24754629629629629</v>
+        <v>0.27113425925925927</v>
       </c>
       <c r="I82" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="M82" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83">
-        <v>25386</v>
+        <v>25492</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C83">
-        <v>639</v>
+        <v>42</v>
       </c>
       <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="E83" t="s">
+        <v>205</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H83" s="1">
-        <v>0.24712962962962962</v>
+        <v>0.26937499999999998</v>
       </c>
       <c r="I83" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K83">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M83" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84">
-        <v>25386</v>
+        <v>25049</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C84">
-        <v>608</v>
-      </c>
-      <c r="D84">
-        <v>10</v>
+        <v>10.9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>36</v>
       </c>
       <c r="E84" t="s">
         <v>207</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H84" s="1">
-        <v>0.24380787037037036</v>
+        <v>0.26841435185185186</v>
       </c>
       <c r="I84" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J84" t="s">
         <v>208</v>
@@ -4538,104 +4562,104 @@
       <c r="K84">
         <v>0</v>
       </c>
-      <c r="L84">
-        <v>10</v>
+      <c r="L84" t="s">
+        <v>36</v>
       </c>
       <c r="M84" t="s">
-        <v>206</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85">
-        <v>24665</v>
+        <v>25492</v>
       </c>
       <c r="B85" t="s">
         <v>13</v>
       </c>
       <c r="C85">
-        <v>35.4</v>
-      </c>
-      <c r="D85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85">
+        <v>70</v>
+      </c>
+      <c r="E85" t="s">
         <v>209</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.26726851851851852</v>
+      </c>
+      <c r="I85" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J85" t="s">
         <v>210</v>
       </c>
-      <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" s="1">
-        <v>0.24331018518518518</v>
-      </c>
-      <c r="I85" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J85" t="s">
-        <v>211</v>
-      </c>
       <c r="K85">
         <v>0</v>
       </c>
-      <c r="L85" t="s">
-        <v>209</v>
+      <c r="L85">
+        <v>70</v>
       </c>
       <c r="M85" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86">
-        <v>25386</v>
+        <v>25049</v>
       </c>
       <c r="B86" t="s">
         <v>13</v>
       </c>
       <c r="C86">
-        <v>608.29999999999995</v>
+        <v>18</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E86" t="s">
+        <v>211</v>
+      </c>
+      <c r="F86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.26608796296296294</v>
+      </c>
+      <c r="I86" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J86" t="s">
+        <v>212</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>200</v>
+      </c>
+      <c r="M86" t="s">
         <v>213</v>
-      </c>
-      <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86" s="1">
-        <v>0.24160879629629628</v>
-      </c>
-      <c r="I86" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J86" t="s">
-        <v>214</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>20</v>
-      </c>
-      <c r="M86" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87">
-        <v>25386</v>
+        <v>25059</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C87">
-        <v>608.1</v>
+        <v>13.1</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -4644,107 +4668,107 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G87" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H87" s="1">
-        <v>0.24144675925925926</v>
+        <v>0.26475694444444448</v>
       </c>
       <c r="I87" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J87" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
       <c r="L87">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="M87" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88">
-        <v>26057</v>
+        <v>25049</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
       </c>
       <c r="C88">
-        <v>248.2</v>
-      </c>
-      <c r="D88" t="s">
-        <v>45</v>
+        <v>303.10000000000002</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
       </c>
       <c r="E88" t="s">
+        <v>215</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.26407407407407407</v>
+      </c>
+      <c r="I88" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J88" t="s">
         <v>216</v>
       </c>
-      <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>21</v>
-      </c>
-      <c r="H88" s="1">
-        <v>0.24121527777777776</v>
-      </c>
-      <c r="I88" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J88" t="s">
-        <v>217</v>
-      </c>
       <c r="K88">
         <v>0</v>
       </c>
-      <c r="L88" t="s">
-        <v>45</v>
+      <c r="L88">
+        <v>5</v>
       </c>
       <c r="M88" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89">
-        <v>25392</v>
+        <v>25049</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89">
-        <v>864</v>
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>217</v>
       </c>
       <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>218</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="H89" s="1">
-        <v>0.23952546296296295</v>
+        <v>0.26150462962962961</v>
       </c>
       <c r="I89" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J89" t="s">
         <v>219</v>
       </c>
       <c r="K89">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="M89" t="s">
         <v>220</v>
@@ -4752,13 +4776,13 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90">
-        <v>25492</v>
+        <v>25049</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
-      <c r="C90">
-        <v>41.9</v>
+      <c r="C90" t="s">
+        <v>221</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -4767,39 +4791,39 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G90" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H90" s="1">
-        <v>0.23886574074074074</v>
+        <v>0.26045138888888891</v>
       </c>
       <c r="I90" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J90" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K90">
         <v>0</v>
       </c>
       <c r="L90">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="M90" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91">
-        <v>27057</v>
+        <v>25049</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>12.3</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -4808,28 +4832,28 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G91" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H91" s="1">
-        <v>0.23756944444444442</v>
+        <v>0.2600925925925926</v>
       </c>
       <c r="I91" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J91" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K91">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="M91" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4837,133 +4861,133 @@
         <v>26057</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C92">
-        <v>246</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
+        <v>248.8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>181</v>
+      </c>
+      <c r="E92" t="s">
+        <v>224</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G92" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H92" s="1">
-        <v>0.23729166666666668</v>
+        <v>0.25876157407407407</v>
       </c>
       <c r="I92" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M92" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93">
-        <v>25562</v>
+      <c r="A93" t="s">
+        <v>64</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C93">
-        <v>246</v>
+        <v>229.6</v>
       </c>
       <c r="D93">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H93" s="1">
-        <v>0.23719907407407406</v>
+        <v>0.25234953703703705</v>
       </c>
       <c r="I93" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
-      <c r="L93" t="s">
-        <v>79</v>
+      <c r="L93">
+        <v>100</v>
       </c>
       <c r="M93" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94">
-        <v>7344</v>
+        <v>21769</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C94">
-        <v>14.2</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
+        <v>59.2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" t="s">
+        <v>229</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H94" s="1">
-        <v>0.23703703703703705</v>
+        <v>0.24322916666666669</v>
       </c>
       <c r="I94" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J94" t="s">
-        <v>227</v>
-      </c>
-      <c r="K94" t="s">
-        <v>228</v>
+        <v>230</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="M94" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95">
-        <v>25785</v>
+        <v>21769</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C95">
-        <v>27.4</v>
+        <v>59.3</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -4972,80 +4996,80 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G95" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H95" s="1">
-        <v>0.23620370370370369</v>
+        <v>0.24319444444444446</v>
       </c>
       <c r="I95" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J95" t="s">
-        <v>230</v>
-      </c>
-      <c r="K95" t="s">
-        <v>42</v>
+        <v>231</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M95" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96">
-        <v>26057</v>
+        <v>25059</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
       </c>
       <c r="C96">
-        <v>245.2</v>
+        <v>59.4</v>
       </c>
       <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="E96" t="s">
+        <v>232</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H96" s="1">
-        <v>0.23548611111111109</v>
+        <v>0.23557870370370371</v>
       </c>
       <c r="I96" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J96" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
-      <c r="L96" t="s">
-        <v>45</v>
+      <c r="L96">
+        <v>185</v>
       </c>
       <c r="M96" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97">
-        <v>25562</v>
+        <v>26513</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C97">
-        <v>245.2</v>
+        <v>15.9</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5054,121 +5078,121 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H97" s="1">
-        <v>0.23175925925925925</v>
+        <v>0.23385416666666667</v>
       </c>
       <c r="I97" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J97" t="s">
-        <v>232</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="K97" t="s">
+        <v>95</v>
       </c>
       <c r="L97" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="M97" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98">
-        <v>24667</v>
+        <v>25492</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C98">
-        <v>13.4</v>
+        <v>42.5</v>
       </c>
       <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="E98" t="s">
+        <v>236</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H98" s="1">
-        <v>0.2315625</v>
+        <v>0.23357638888888888</v>
       </c>
       <c r="I98" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J98" t="s">
-        <v>233</v>
-      </c>
-      <c r="K98" t="s">
-        <v>65</v>
-      </c>
-      <c r="L98" t="s">
-        <v>65</v>
+        <v>237</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>50</v>
       </c>
       <c r="M98" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99">
-        <v>25497</v>
+        <v>25492</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <v>55.5</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="D99" t="s">
+        <v>79</v>
+      </c>
+      <c r="E99" t="s">
+        <v>238</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H99" s="1">
-        <v>0.23129629629629631</v>
+        <v>0.23136574074074076</v>
       </c>
       <c r="I99" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J99" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K99">
         <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="M99" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100">
-        <v>25497</v>
+        <v>25562</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" t="s">
-        <v>235</v>
+        <v>13</v>
+      </c>
+      <c r="C100">
+        <v>246</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5177,39 +5201,39 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G100" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H100" s="1">
-        <v>0.23004629629629628</v>
+        <v>0.23121527777777776</v>
       </c>
       <c r="I100" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J100" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K100">
-        <v>5</v>
-      </c>
-      <c r="L100">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="L100" t="s">
+        <v>36</v>
       </c>
       <c r="M100" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101">
-        <v>24667</v>
+        <v>25562</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>13.5</v>
+        <v>245.5</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -5218,39 +5242,39 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G101" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H101" s="1">
-        <v>0.22924768518518521</v>
+        <v>0.23097222222222222</v>
       </c>
       <c r="I101" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J101" t="s">
-        <v>238</v>
-      </c>
-      <c r="K101" t="s">
-        <v>65</v>
+        <v>241</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M101" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102">
-        <v>24667</v>
+        <v>25492</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C102">
-        <v>13.6</v>
+        <v>175</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5259,28 +5283,28 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G102" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H102" s="1">
-        <v>0.22924768518518521</v>
+        <v>0.23083333333333333</v>
       </c>
       <c r="I102" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J102" t="s">
-        <v>239</v>
-      </c>
-      <c r="K102" t="s">
-        <v>65</v>
-      </c>
-      <c r="L102" t="s">
-        <v>65</v>
+        <v>242</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>25</v>
       </c>
       <c r="M102" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -5291,37 +5315,37 @@
         <v>13</v>
       </c>
       <c r="C103">
-        <v>13.1</v>
-      </c>
-      <c r="D103" t="s">
-        <v>65</v>
-      </c>
-      <c r="E103" t="s">
-        <v>240</v>
+        <v>13.2</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H103" s="1">
         <v>0.22924768518518521</v>
       </c>
       <c r="I103" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J103" t="s">
-        <v>241</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="K103" t="s">
+        <v>244</v>
       </c>
       <c r="L103" t="s">
-        <v>65</v>
+        <v>244</v>
       </c>
       <c r="M103" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5332,7 +5356,7 @@
         <v>13</v>
       </c>
       <c r="C104">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -5341,39 +5365,39 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H104" s="1">
-        <v>0.22923611111111111</v>
+        <v>0.22924768518518521</v>
       </c>
       <c r="I104" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J104" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K104" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="L104" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="M104" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105">
-        <v>24667</v>
+        <v>26513</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C105">
-        <v>13.7</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -5382,28 +5406,28 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G105" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H105" s="1">
-        <v>0.22923611111111111</v>
+        <v>0.22924768518518521</v>
       </c>
       <c r="I105" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J105" t="s">
-        <v>243</v>
-      </c>
-      <c r="K105" t="s">
-        <v>65</v>
+        <v>247</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="M105" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5414,7 +5438,7 @@
         <v>13</v>
       </c>
       <c r="C106">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5423,69 +5447,274 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H106" s="1">
-        <v>0.22923611111111111</v>
+        <v>0.22924768518518521</v>
       </c>
       <c r="I106" s="2">
-        <v>43452</v>
+        <v>43457</v>
       </c>
       <c r="J106" t="s">
-        <v>244</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="K106" t="s">
+        <v>28</v>
       </c>
       <c r="L106" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="M106" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107">
-        <v>24900</v>
+        <v>24667</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="D107">
-        <v>100</v>
-      </c>
-      <c r="E107" t="s">
-        <v>245</v>
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H107" s="1">
+        <v>0.22924768518518521</v>
+      </c>
+      <c r="I107" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J107" t="s">
+        <v>249</v>
+      </c>
+      <c r="K107" t="s">
+        <v>95</v>
+      </c>
+      <c r="L107" t="s">
+        <v>95</v>
+      </c>
+      <c r="M107" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108">
+        <v>26513</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108">
+        <v>16.2</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s">
+        <v>68</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.22924768518518521</v>
+      </c>
+      <c r="I108" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J108" t="s">
+        <v>250</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108" t="s">
+        <v>95</v>
+      </c>
+      <c r="M108" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109">
+        <v>25059</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109">
+        <v>23.4</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0.22924768518518521</v>
+      </c>
+      <c r="I109" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J109" t="s">
+        <v>251</v>
+      </c>
+      <c r="K109">
+        <v>550</v>
+      </c>
+      <c r="L109">
+        <v>550</v>
+      </c>
+      <c r="M109" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110">
+        <v>25059</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110">
+        <v>13.6</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s">
+        <v>43</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.22924768518518521</v>
+      </c>
+      <c r="I110" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J110" t="s">
+        <v>253</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>420</v>
+      </c>
+      <c r="M110" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111">
+        <v>24667</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111">
+        <v>14.2</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>33</v>
+      </c>
+      <c r="G111" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111" s="1">
         <v>0.22923611111111111</v>
       </c>
-      <c r="I107" s="2">
-        <v>43452</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="I111" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J111" t="s">
+        <v>254</v>
+      </c>
+      <c r="K111" t="s">
+        <v>95</v>
+      </c>
+      <c r="L111" t="s">
+        <v>95</v>
+      </c>
+      <c r="M111" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112">
+        <v>24667</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112">
+        <v>13.3</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>33</v>
+      </c>
+      <c r="G112" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0.22923611111111111</v>
+      </c>
+      <c r="I112" s="2">
+        <v>43457</v>
+      </c>
+      <c r="J112" t="s">
+        <v>255</v>
+      </c>
+      <c r="K112" t="s">
         <v>246</v>
       </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107">
-        <v>100</v>
-      </c>
-      <c r="M107" t="s">
-        <v>247</v>
+      <c r="L112" t="s">
+        <v>246</v>
+      </c>
+      <c r="M112" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
